--- a/shopee_upload.xlsx
+++ b/shopee_upload.xlsx
@@ -683,43 +683,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>【萬泰豐團購】 【鳳松林】💯料理的靈魂🤤超香~~一拌上癮!! 🍜老店紅蔥頭拌醬【箱出】200g</t>
+          <t>｜晨一鮮食｜ 嚴選新社香菇 好吃不乾硬 超好吃的素食肉乾😍 紅燒香菇頭150g【全素】</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>#料理靈魂💯一拌上癮#古早味超香拌醬👍👍👉美味升級的配方👉家常料理不可或缺的調料👉傳統古早味－怎麼都不膩的好滋味🉐嚴選台灣在地紅蔥頭👨‍🌾滿滿紅蔥頭辛香祖傳醬油，回甘好滋味🆙洋蔥頭🧅清甜滋味不油膩✅老師傅手藝✅精準火侯✅精準調味🧑‍🍳遵循古法製作🧑‍🍳祖輩傳承的製作手法及配方💯依循古法手工製作，細節繁瑣仔細挑選👑剝膜切丁的紅蔥頭放入鍋裡慢火不停拌攪，入口不會有🚫焦苦味孰悉的古早味，香氣四溢，這香味才是最對味阿😋😋👵阿嬤家常料理，滿滿家鄉味簡單拌，加上一瓢美味感🍜料理小秘訣加入一勺醬，美味感提升⬆️⬆️✔️拌麵✔️拌飯✔️拌青菜，鹹香鹹香好涮口🥬馬上變出一道香噴噴的料理~~想來碗湯🥣也是來上一勺，繁瑣調味步驟說bye bye這樣還不心動來一瓶💞趕快囤個幾瓶想吃就有，簡單料理沒問題🆗
-#料理靈魂💯一拌上癮
-#古早味超香拌醬👍👍
-👉美味升級的配方
-👉家常料理不可或缺的調料
-👉傳統古早味－怎麼都不膩的好滋味
-🉐嚴選台灣在地紅蔥頭👨‍🌾
-滿滿紅蔥頭辛香
-祖傳醬油，回甘好滋味🆙
-洋蔥頭🧅清甜滋味不油膩
-✅老師傅手藝✅精準火侯✅精準調味
-🧑‍🍳遵循古法製作🧑‍🍳
-祖輩傳承的製作手法及配方💯
-依循古法手工製作，細節繁瑣
-仔細挑選👑剝膜切丁的紅蔥頭放入鍋裡
-慢火不停拌攪，入口不會有🚫焦苦味
-孰悉的古早味，香氣四溢，這香味才是最對味阿😋😋
-👵阿嬤家常料理，滿滿家鄉味
-簡單拌，加上一瓢美味感
-🍜料理小秘訣
-加入一勺醬，美味感提升⬆️⬆️
-✔️拌麵✔️拌飯✔️拌青菜，鹹香鹹香好涮口🥬
-馬上變出一道香噴噴的料理~~
-想來碗湯🥣也是來上一勺，繁瑣調味步驟說bye bye
-這樣還不心動來一瓶💞
-趕快囤個幾瓶想吃就有，簡單料理沒問題🆗
-成分：黃豆油、紅蔥酥(紅蔥頭、洋蔥頭、玉米澱粉、棕櫚油、小麥麩皮)、黃豆醬油(非基因政造)、大豆蛋白(非基因改造)、糖、辣椒、琥珀酸二鈉、5'-次黃嘌呤核苷磷酸二鈉、5'-鳥嘌呤核苷磷酸二鈉、鹽、香料、L-麩酸鈉、酵母萃取物、麥芽糊精、大豆水解蛋白重量：200g產地：台灣保存期限：3年保存方式：請置於低溫乾燥處，開封後請盡快食用完畢
-成分：黃豆油、紅蔥酥(紅蔥頭、洋蔥頭、玉米澱粉、棕櫚油、小麥麩皮)、黃豆醬油(非基因政造)、大豆蛋白(非基因改造)、糖、辣椒、琥珀酸二鈉、5'-次黃嘌呤核苷磷酸二鈉、5'-鳥嘌呤核苷磷酸二鈉、鹽、香料、L-麩酸鈉、酵母萃取物、麥芽糊精、大豆水解蛋白
-重量：200g
+          <t xml:space="preserve">🎊🎊終於找到一款，好吃又不乾硬的素食肉乾
+小編一吃到就震驚了😂😂
+吃來吃去就是這一包，真的超~好~吃~
+⭐⭐獨家製作紅燒口味⭐⭐
+多種香料調配出㊙獨門配方
+一入口就炸💥出滿滿香氣
+🤤口水停不下來，只想一口接一口
+💡嚴選台中新社超大朵香菇🍄，乾燥後剪下香菇頭
+經過敲打，使香菇頭纖維變鬆散
+所以吃起來有嚼勁，但是不會🆖又乾又硬
+紅燒調味夠入味，好吃的讓你一直想念🌈🌈
+吃起來像肉乾，其實是香菇頭🤭🤭
+營養香菇製成，香氣💯分
+🉐全素食也能吃的紅燒香菇頭
+💟嘴饞救星💟陪你追劇看電視
+鹹香味道也很適合當下酒菜喔🍻
+成分：香菇、砂糖、甘油、大豆油、醬油【黃豆、小麥、食鹽、砂糖、水、調味料(琥珀酸二鈉、5’-次黃嘌呤核苷磷酸二鈉、5’-鳥嘌呤核苷磷酸二鈉)、甜味劑(醋磺內酯鉀)】、豆粉、L-麩酸鈉、鹽、甘草、桂由、五香粉(小茴、大茴、丁香、桂皮、甘松、三奈)麥芽糊精、中鏈三酸甘油酯、辛烯基丁二酸鈉澱粉、香料、防腐劑(已二烯酸鉀)
+重量：150g
 產地：台灣
-保存期限：3年
-保存方式：請置於低溫乾燥處，開封後請盡快食用完畢</t>
+保存期限：1年
+保存方式：請置於低溫乾燥處，開封後請盡快食用完畢
+※本產品含大豆、麩質的穀類製品，不適合其過敏體質者食用
+※全素可食
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -736,12 +728,12 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>99</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
